--- a/config_Release/new_vip_server.xlsx
+++ b/config_Release/new_vip_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="daily_task_award" sheetId="10" r:id="rId7"/>
     <sheet name="awards" sheetId="8" r:id="rId8"/>
     <sheet name="not_add_vip_progress_lb_id" sheetId="11" r:id="rId9"/>
+    <sheet name="buy_jingbi_add_products|老用户充值返利" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>no</t>
   </si>
@@ -144,13 +145,16 @@
   </si>
   <si>
     <t>lb_id|不加vip进度的礼包id</t>
+  </si>
+  <si>
+    <t>lb_id|购买金币需要额外加赠的礼包id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,12 +166,14 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -179,10 +185,19 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -227,11 +242,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,9 +276,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,12 +684,353 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="39.625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>10044</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <v>10045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <v>10189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>4800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -768,7 +1130,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1512,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1613,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1705,78 +2067,6 @@
         <v>10088</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>10252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>10254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>10255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10283</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/new_vip_server.xlsx
+++ b/config_Release/new_vip_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>no</t>
   </si>
@@ -148,6 +148,41 @@
   </si>
   <si>
     <t>lb_id|购买金币需要额外加赠的礼包id</t>
+  </si>
+  <si>
+    <t>全返礼包I</t>
+  </si>
+  <si>
+    <t>全返礼包III</t>
+  </si>
+  <si>
+    <t>全返礼包II</t>
+  </si>
+  <si>
+    <t>三元超值礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新玩家1元礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0元礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包免费用户1元</t>
+  </si>
+  <si>
+    <t>每日特惠礼包免费用户3元</t>
+  </si>
+  <si>
+    <t>免费红包-6元礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>|礼包名字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -247,7 +282,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,6 +315,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1975,96 +2012,127 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>10084</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>10085</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>10086</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>10080</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>10169</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>10190</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>10087</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>10088</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/new_vip_server.xlsx
+++ b/config_Release/new_vip_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>no</t>
   </si>
@@ -182,6 +182,10 @@
   </si>
   <si>
     <t>|礼包名字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2012,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:C6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2135,6 +2139,17 @@
         <v>47</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10290</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/new_vip_server.xlsx
+++ b/config_Release/new_vip_server.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>no</t>
   </si>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>免费福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2016,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2150,6 +2154,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10291</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/new_vip_server.xlsx
+++ b/config_Release/new_vip_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>no</t>
   </si>
@@ -190,6 +190,37 @@
   </si>
   <si>
     <t>免费话费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包免费用户1元-冲金鸡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每日特惠礼包免费用户3元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冲金鸡</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2020,17 +2051,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2165,6 +2196,28 @@
         <v>51</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10346</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10347</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/new_vip_server.xlsx
+++ b/config_Release/new_vip_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -216,6 +216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1212,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1326,6 +1327,22 @@
       </c>
       <c r="D11" s="3">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1610,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1775,6 +1792,34 @@
         <v>50</v>
       </c>
       <c r="D11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>70</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2053,7 +2098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/new_vip_server.xlsx
+++ b/config_Release/new_vip_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1629,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2098,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2135,7 +2135,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>10085</v>
       </c>
       <c r="C3" t="s">
@@ -2266,5 +2266,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/new_vip_server.xlsx
+++ b/config_Release/new_vip_server.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>no</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>全返礼包I</t>
-  </si>
-  <si>
-    <t>全返礼包III</t>
-  </si>
-  <si>
-    <t>全返礼包II</t>
   </si>
   <si>
     <t>三元超值礼包</t>
@@ -2096,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2117,7 +2111,7 @@
         <v>38</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2132,91 +2126,91 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>10085</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10080</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10086</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12" t="s">
+        <v>10169</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>10080</v>
+        <v>10190</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10087</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10169</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10088</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10190</v>
-      </c>
-      <c r="C8" s="13" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10290</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10087</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>10088</v>
+        <v>10291</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2224,43 +2218,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10290</v>
-      </c>
-      <c r="C11" t="s">
+        <v>10346</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>10291</v>
-      </c>
-      <c r="C12" t="s">
+        <v>10347</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10346</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10347</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/new_vip_server.xlsx
+++ b/config_Release/new_vip_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1623,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1820,6 +1820,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2092,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
